--- a/Team-Data/2012-13/11-12-2012-13.xlsx
+++ b/Team-Data/2012-13/11-12-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,112 +733,112 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H2" t="n">
         <v>48</v>
       </c>
       <c r="I2" t="n">
-        <v>36.3</v>
+        <v>36.6</v>
       </c>
       <c r="J2" t="n">
-        <v>81.2</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L2" t="n">
+        <v>8</v>
+      </c>
+      <c r="M2" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="O2" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="P2" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="R2" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="S2" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="T2" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="U2" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="W2" t="n">
         <v>7.8</v>
       </c>
-      <c r="M2" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="O2" t="n">
-        <v>12</v>
-      </c>
-      <c r="P2" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.699</v>
-      </c>
-      <c r="R2" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="S2" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="T2" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="U2" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="V2" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="W2" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="X2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.5</v>
+        <v>17.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.5</v>
+        <v>92</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1</v>
+        <v>-2.8</v>
       </c>
       <c r="AD2" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE2" t="n">
         <v>22</v>
       </c>
-      <c r="AE2" t="n">
-        <v>16</v>
-      </c>
       <c r="AF2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH2" t="n">
         <v>11</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>13</v>
       </c>
       <c r="AI2" t="n">
         <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK2" t="n">
         <v>10</v>
       </c>
       <c r="AL2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN2" t="n">
         <v>17</v>
@@ -780,46 +847,46 @@
         <v>29</v>
       </c>
       <c r="AP2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>28</v>
       </c>
-      <c r="AQ2" t="n">
-        <v>26</v>
-      </c>
       <c r="AR2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AS2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT2" t="n">
         <v>24</v>
       </c>
       <c r="AU2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW2" t="n">
         <v>18</v>
       </c>
-      <c r="AV2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>12</v>
-      </c>
       <c r="AX2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BA2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB2" t="n">
         <v>22</v>
       </c>
       <c r="BC2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-12-2012-13</t>
+          <t>2012-11-12</t>
         </is>
       </c>
     </row>
@@ -848,160 +915,160 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>0.571</v>
+        <v>0.5</v>
       </c>
       <c r="H3" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I3" t="n">
-        <v>36</v>
+        <v>35.2</v>
       </c>
       <c r="J3" t="n">
-        <v>77.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="K3" t="n">
-        <v>0.464</v>
+        <v>0.457</v>
       </c>
       <c r="L3" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.372</v>
+      </c>
+      <c r="O3" t="n">
+        <v>21</v>
+      </c>
+      <c r="P3" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="U3" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>15</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y3" t="n">
         <v>5</v>
       </c>
-      <c r="M3" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="O3" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.802</v>
-      </c>
-      <c r="R3" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="S3" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="T3" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="U3" t="n">
+      <c r="Z3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL3" t="n">
         <v>25</v>
-      </c>
-      <c r="V3" t="n">
-        <v>14</v>
-      </c>
-      <c r="W3" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="X3" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>16</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>27</v>
       </c>
       <c r="AM3" t="n">
         <v>28</v>
       </c>
       <c r="AN3" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AO3" t="n">
         <v>3</v>
       </c>
       <c r="AP3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AT3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AW3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX3" t="n">
         <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AZ3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA3" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="BB3" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BC3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-12-2012-13</t>
+          <t>2012-11-12</t>
         </is>
       </c>
     </row>
@@ -1108,52 +1175,52 @@
         <v>2.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE4" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AF4" t="n">
         <v>4</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL4" t="n">
         <v>9</v>
       </c>
       <c r="AM4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AP4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AQ4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AS4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT4" t="n">
         <v>13</v>
@@ -1162,7 +1229,7 @@
         <v>26</v>
       </c>
       <c r="AV4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW4" t="n">
         <v>25</v>
@@ -1171,7 +1238,7 @@
         <v>22</v>
       </c>
       <c r="AY4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ4" t="n">
         <v>1</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-12-2012-13</t>
+          <t>2012-11-12</t>
         </is>
       </c>
     </row>
@@ -1290,52 +1357,52 @@
         <v>-7.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL5" t="n">
         <v>20</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>21</v>
       </c>
       <c r="AM5" t="n">
         <v>15</v>
       </c>
       <c r="AN5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AP5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>11</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>10</v>
       </c>
       <c r="AR5" t="n">
         <v>2</v>
       </c>
       <c r="AS5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT5" t="n">
         <v>15</v>
@@ -1344,25 +1411,25 @@
         <v>28</v>
       </c>
       <c r="AV5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX5" t="n">
         <v>4</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>3</v>
       </c>
       <c r="AY5" t="n">
         <v>26</v>
       </c>
       <c r="AZ5" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC5" t="n">
         <v>29</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-12-2012-13</t>
+          <t>2012-11-12</t>
         </is>
       </c>
     </row>
@@ -1394,103 +1461,103 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.571</v>
+        <v>0.667</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>35.6</v>
+        <v>35.8</v>
       </c>
       <c r="J6" t="n">
-        <v>79.7</v>
+        <v>80.7</v>
       </c>
       <c r="K6" t="n">
-        <v>0.446</v>
+        <v>0.444</v>
       </c>
       <c r="L6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="M6" t="n">
-        <v>11.3</v>
+        <v>11.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.316</v>
+        <v>0.314</v>
       </c>
       <c r="O6" t="n">
-        <v>19.9</v>
+        <v>19.2</v>
       </c>
       <c r="P6" t="n">
-        <v>25.3</v>
+        <v>24.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.785</v>
+        <v>0.788</v>
       </c>
       <c r="R6" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="S6" t="n">
         <v>31.7</v>
       </c>
       <c r="T6" t="n">
-        <v>42.7</v>
+        <v>43.2</v>
       </c>
       <c r="U6" t="n">
         <v>24</v>
       </c>
       <c r="V6" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AD6" t="n">
         <v>15</v>
       </c>
-      <c r="W6" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="X6" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>8</v>
-      </c>
       <c r="AE6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG6" t="n">
         <v>7</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AH6" t="n">
         <v>11</v>
       </c>
-      <c r="AG6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>13</v>
-      </c>
       <c r="AI6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
         <v>11</v>
@@ -1502,52 +1569,52 @@
         <v>30</v>
       </c>
       <c r="AN6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU6" t="n">
         <v>4</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>5</v>
       </c>
       <c r="AV6" t="n">
         <v>11</v>
       </c>
       <c r="AW6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX6" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AY6" t="n">
         <v>12</v>
       </c>
       <c r="AZ6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-12-2012-13</t>
+          <t>2012-11-12</t>
         </is>
       </c>
     </row>
@@ -1654,19 +1721,19 @@
         <v>-6</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI7" t="n">
         <v>14</v>
@@ -1675,13 +1742,13 @@
         <v>15</v>
       </c>
       <c r="AK7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN7" t="n">
         <v>6</v>
@@ -1690,7 +1757,7 @@
         <v>21</v>
       </c>
       <c r="AP7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AQ7" t="n">
         <v>29</v>
@@ -1702,16 +1769,16 @@
         <v>26</v>
       </c>
       <c r="AT7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV7" t="n">
         <v>27</v>
       </c>
       <c r="AW7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX7" t="n">
         <v>30</v>
@@ -1726,10 +1793,10 @@
         <v>12</v>
       </c>
       <c r="BB7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BC7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-12-2012-13</t>
+          <t>2012-11-12</t>
         </is>
       </c>
     </row>
@@ -1758,160 +1825,160 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>0.571</v>
       </c>
       <c r="H8" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I8" t="n">
-        <v>37.8</v>
+        <v>39</v>
       </c>
       <c r="J8" t="n">
-        <v>81.5</v>
+        <v>81.7</v>
       </c>
       <c r="K8" t="n">
-        <v>0.463</v>
+        <v>0.477</v>
       </c>
       <c r="L8" t="n">
-        <v>8.9</v>
+        <v>9.6</v>
       </c>
       <c r="M8" t="n">
-        <v>20.8</v>
+        <v>21.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.428</v>
+        <v>0.447</v>
       </c>
       <c r="O8" t="n">
-        <v>17.5</v>
+        <v>17.1</v>
       </c>
       <c r="P8" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.757</v>
+        <v>0.75</v>
       </c>
       <c r="R8" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="S8" t="n">
-        <v>33.5</v>
+        <v>34.3</v>
       </c>
       <c r="T8" t="n">
-        <v>41.9</v>
+        <v>42.9</v>
       </c>
       <c r="U8" t="n">
-        <v>22.1</v>
+        <v>23</v>
       </c>
       <c r="V8" t="n">
-        <v>15</v>
+        <v>15.7</v>
       </c>
       <c r="W8" t="n">
         <v>7.4</v>
       </c>
       <c r="X8" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="Z8" t="n">
-        <v>23.8</v>
+        <v>24.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>101.9</v>
+        <v>104.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF8" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL8" t="n">
         <v>2</v>
       </c>
       <c r="AM8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AN8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AP8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>16</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>17</v>
-      </c>
       <c r="AR8" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AS8" t="n">
         <v>4</v>
       </c>
       <c r="AT8" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AU8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AW8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AY8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-12-2012-13</t>
+          <t>2012-11-12</t>
         </is>
       </c>
     </row>
@@ -1940,121 +2007,121 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>0.571</v>
       </c>
       <c r="H9" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="I9" t="n">
-        <v>39.5</v>
+        <v>39.3</v>
       </c>
       <c r="J9" t="n">
-        <v>90.3</v>
+        <v>92.3</v>
       </c>
       <c r="K9" t="n">
-        <v>0.438</v>
+        <v>0.426</v>
       </c>
       <c r="L9" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M9" t="n">
-        <v>21.3</v>
+        <v>22</v>
       </c>
       <c r="N9" t="n">
-        <v>0.3</v>
+        <v>0.286</v>
       </c>
       <c r="O9" t="n">
-        <v>13.8</v>
+        <v>14.1</v>
       </c>
       <c r="P9" t="n">
-        <v>21.4</v>
+        <v>21.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.643</v>
+        <v>0.647</v>
       </c>
       <c r="R9" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="T9" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="U9" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="V9" t="n">
         <v>16.4</v>
       </c>
-      <c r="S9" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="T9" t="n">
-        <v>51</v>
-      </c>
-      <c r="U9" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="V9" t="n">
-        <v>16.3</v>
-      </c>
       <c r="W9" t="n">
-        <v>7.4</v>
+        <v>8.1</v>
       </c>
       <c r="X9" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
       </c>
       <c r="AE9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF9" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AI9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ9" t="n">
         <v>1</v>
       </c>
       <c r="AK9" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AL9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM9" t="n">
         <v>8</v>
       </c>
       <c r="AN9" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AO9" t="n">
         <v>27</v>
       </c>
       <c r="AP9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AQ9" t="n">
         <v>30</v>
@@ -2069,31 +2136,31 @@
         <v>1</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AW9" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AX9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY9" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AZ9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC9" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-12-2012-13</t>
+          <t>2012-11-12</t>
         </is>
       </c>
     </row>
@@ -2122,13 +2189,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -2137,67 +2204,67 @@
         <v>48</v>
       </c>
       <c r="I10" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="J10" t="n">
-        <v>81.09999999999999</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.419</v>
+        <v>0.422</v>
       </c>
       <c r="L10" t="n">
         <v>5.9</v>
       </c>
       <c r="M10" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="N10" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O10" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P10" t="n">
-        <v>23.6</v>
+        <v>23.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.735</v>
+        <v>0.747</v>
       </c>
       <c r="R10" t="n">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="S10" t="n">
         <v>26.3</v>
       </c>
       <c r="T10" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="U10" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V10" t="n">
-        <v>15</v>
+        <v>15.4</v>
       </c>
       <c r="W10" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="X10" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.1</v>
+        <v>5.3</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.5</v>
+        <v>18.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB10" t="n">
-        <v>91.3</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>-10.3</v>
+        <v>-11.4</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -2212,7 +2279,7 @@
         <v>29</v>
       </c>
       <c r="AH10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI10" t="n">
         <v>28</v>
@@ -2221,58 +2288,58 @@
         <v>20</v>
       </c>
       <c r="AK10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN10" t="n">
         <v>13</v>
       </c>
       <c r="AO10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AQ10" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AR10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AS10" t="n">
         <v>30</v>
       </c>
       <c r="AT10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AU10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV10" t="n">
         <v>15</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>11</v>
       </c>
       <c r="AW10" t="n">
         <v>28</v>
       </c>
       <c r="AX10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY10" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AZ10" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BA10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BB10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC10" t="n">
         <v>30</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-12-2012-13</t>
+          <t>2012-11-12</t>
         </is>
       </c>
     </row>
@@ -2382,43 +2449,43 @@
         <v>-3.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AK11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM11" t="n">
         <v>13</v>
       </c>
       <c r="AN11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO11" t="n">
         <v>12</v>
       </c>
       <c r="AP11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AQ11" t="n">
         <v>25</v>
@@ -2427,34 +2494,34 @@
         <v>13</v>
       </c>
       <c r="AS11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT11" t="n">
         <v>5</v>
       </c>
       <c r="AU11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV11" t="n">
         <v>22</v>
       </c>
       <c r="AW11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AY11" t="n">
         <v>19</v>
       </c>
-      <c r="AX11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>18</v>
-      </c>
       <c r="AZ11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA11" t="n">
         <v>2</v>
       </c>
       <c r="BB11" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BC11" t="n">
         <v>21</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-12-2012-13</t>
+          <t>2012-11-12</t>
         </is>
       </c>
     </row>
@@ -2486,160 +2553,160 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>0.429</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I12" t="n">
-        <v>34.6</v>
+        <v>34.3</v>
       </c>
       <c r="J12" t="n">
-        <v>83.90000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.412</v>
+        <v>0.406</v>
       </c>
       <c r="L12" t="n">
-        <v>8.699999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M12" t="n">
-        <v>29</v>
+        <v>28.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="O12" t="n">
-        <v>18.9</v>
+        <v>17.7</v>
       </c>
       <c r="P12" t="n">
-        <v>23.9</v>
+        <v>22.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.79</v>
+        <v>0.791</v>
       </c>
       <c r="R12" t="n">
-        <v>13.4</v>
+        <v>13.8</v>
       </c>
       <c r="S12" t="n">
-        <v>33</v>
+        <v>33.7</v>
       </c>
       <c r="T12" t="n">
-        <v>46.4</v>
+        <v>47.5</v>
       </c>
       <c r="U12" t="n">
-        <v>21.7</v>
+        <v>21.2</v>
       </c>
       <c r="V12" t="n">
-        <v>17.9</v>
+        <v>19</v>
       </c>
       <c r="W12" t="n">
-        <v>9.6</v>
+        <v>10.3</v>
       </c>
       <c r="X12" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="Y12" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AA12" t="n">
-        <v>18.7</v>
+        <v>17.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>96.7</v>
+        <v>94.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AD12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>8</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>12</v>
       </c>
       <c r="AK12" t="n">
         <v>28</v>
       </c>
       <c r="AL12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM12" t="n">
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO12" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AP12" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AQ12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR12" t="n">
         <v>6</v>
       </c>
       <c r="AS12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AV12" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX12" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AY12" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AZ12" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA12" t="n">
         <v>26</v>
       </c>
       <c r="BB12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-12-2012-13</t>
+          <t>2012-11-12</t>
         </is>
       </c>
     </row>
@@ -2746,37 +2813,37 @@
         <v>-2</v>
       </c>
       <c r="AD13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AF13" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM13" t="n">
         <v>14</v>
       </c>
       <c r="AN13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO13" t="n">
         <v>22</v>
@@ -2785,10 +2852,10 @@
         <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AR13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS13" t="n">
         <v>2</v>
@@ -2806,7 +2873,7 @@
         <v>29</v>
       </c>
       <c r="AX13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY13" t="n">
         <v>22</v>
@@ -2821,7 +2888,7 @@
         <v>26</v>
       </c>
       <c r="BC13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-12-2012-13</t>
+          <t>2012-11-12</t>
         </is>
       </c>
     </row>
@@ -2928,55 +2995,55 @@
         <v>8</v>
       </c>
       <c r="AD14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
         <v>4</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS14" t="n">
         <v>21</v>
       </c>
-      <c r="AN14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AT14" t="n">
         <v>26</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>27</v>
       </c>
       <c r="AU14" t="n">
         <v>7</v>
@@ -2985,22 +3052,22 @@
         <v>25</v>
       </c>
       <c r="AW14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX14" t="n">
         <v>9</v>
       </c>
       <c r="AY14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA14" t="n">
         <v>12</v>
       </c>
       <c r="BB14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-12-2012-13</t>
+          <t>2012-11-12</t>
         </is>
       </c>
     </row>
@@ -3110,19 +3177,19 @@
         <v>4.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AF15" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI15" t="n">
         <v>21</v>
@@ -3131,7 +3198,7 @@
         <v>27</v>
       </c>
       <c r="AK15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL15" t="n">
         <v>12</v>
@@ -3140,31 +3207,31 @@
         <v>12</v>
       </c>
       <c r="AN15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP15" t="n">
         <v>1</v>
       </c>
       <c r="AQ15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR15" t="n">
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AV15" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AW15" t="n">
         <v>17</v>
@@ -3173,19 +3240,19 @@
         <v>15</v>
       </c>
       <c r="AY15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ15" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
       </c>
       <c r="BB15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BC15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-12-2012-13</t>
+          <t>2012-11-12</t>
         </is>
       </c>
     </row>
@@ -3292,10 +3359,10 @@
         <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF16" t="n">
         <v>2</v>
@@ -3304,31 +3371,31 @@
         <v>3</v>
       </c>
       <c r="AH16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO16" t="n">
         <v>4</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AP16" t="n">
         <v>5</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>7</v>
       </c>
       <c r="AQ16" t="n">
         <v>3</v>
@@ -3337,25 +3404,25 @@
         <v>7</v>
       </c>
       <c r="AS16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV16" t="n">
         <v>7</v>
       </c>
       <c r="AW16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ16" t="n">
         <v>19</v>
@@ -3364,7 +3431,7 @@
         <v>14</v>
       </c>
       <c r="BB16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC16" t="n">
         <v>2</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-12-2012-13</t>
+          <t>2012-11-12</t>
         </is>
       </c>
     </row>
@@ -3396,88 +3463,88 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
         <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>0.75</v>
+        <v>0.714</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="J17" t="n">
-        <v>80</v>
+        <v>78.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.497</v>
+        <v>0.495</v>
       </c>
       <c r="L17" t="n">
-        <v>8.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M17" t="n">
         <v>21.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.42</v>
+        <v>0.412</v>
       </c>
       <c r="O17" t="n">
-        <v>17.1</v>
+        <v>17.7</v>
       </c>
       <c r="P17" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.765</v>
+        <v>0.78</v>
       </c>
       <c r="R17" t="n">
-        <v>8.800000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="S17" t="n">
         <v>31.4</v>
       </c>
       <c r="T17" t="n">
-        <v>40.1</v>
+        <v>39.6</v>
       </c>
       <c r="U17" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="V17" t="n">
-        <v>13</v>
+        <v>13.3</v>
       </c>
       <c r="W17" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="X17" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.5</v>
+        <v>18.9</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>105.5</v>
+        <v>104.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF17" t="n">
         <v>4</v>
@@ -3486,70 +3553,70 @@
         <v>4</v>
       </c>
       <c r="AH17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AS17" t="n">
         <v>13</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>16</v>
       </c>
       <c r="AT17" t="n">
         <v>25</v>
       </c>
       <c r="AU17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV17" t="n">
         <v>4</v>
       </c>
-      <c r="AV17" t="n">
-        <v>2</v>
-      </c>
       <c r="AW17" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AX17" t="n">
         <v>21</v>
       </c>
       <c r="AY17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ17" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-12-2012-13</t>
+          <t>2012-11-12</t>
         </is>
       </c>
     </row>
@@ -3578,160 +3645,160 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>0.667</v>
+        <v>0.6</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>38.7</v>
+        <v>38.2</v>
       </c>
       <c r="J18" t="n">
-        <v>83.7</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.462</v>
+        <v>0.453</v>
       </c>
       <c r="L18" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M18" t="n">
-        <v>18.5</v>
+        <v>18.2</v>
       </c>
       <c r="N18" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="O18" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="P18" t="n">
-        <v>19.5</v>
+        <v>19.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.761</v>
+        <v>0.737</v>
       </c>
       <c r="R18" t="n">
-        <v>9.699999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="S18" t="n">
-        <v>32.7</v>
+        <v>30.8</v>
       </c>
       <c r="T18" t="n">
-        <v>42.3</v>
+        <v>41.2</v>
       </c>
       <c r="U18" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="V18" t="n">
-        <v>16.8</v>
+        <v>15.6</v>
       </c>
       <c r="W18" t="n">
-        <v>9.300000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="X18" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.8</v>
+        <v>21</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.7</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AF18" t="n">
         <v>4</v>
       </c>
       <c r="AG18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ18" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AK18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AM18" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AN18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP18" t="n">
         <v>25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AR18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AS18" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AT18" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AU18" t="n">
         <v>3</v>
       </c>
       <c r="AV18" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AW18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ18" t="n">
         <v>17</v>
       </c>
       <c r="BA18" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="BB18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BC18" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-12-2012-13</t>
+          <t>2012-11-12</t>
         </is>
       </c>
     </row>
@@ -3760,61 +3827,61 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
         <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>0.714</v>
+        <v>0.667</v>
       </c>
       <c r="H19" t="n">
         <v>48</v>
       </c>
       <c r="I19" t="n">
-        <v>33.9</v>
+        <v>34.5</v>
       </c>
       <c r="J19" t="n">
-        <v>76.40000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.443</v>
+        <v>0.44</v>
       </c>
       <c r="L19" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="M19" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.282</v>
+        <v>0.284</v>
       </c>
       <c r="O19" t="n">
-        <v>19.4</v>
+        <v>18.3</v>
       </c>
       <c r="P19" t="n">
-        <v>25.6</v>
+        <v>24.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.76</v>
+        <v>0.748</v>
       </c>
       <c r="R19" t="n">
-        <v>11.3</v>
+        <v>12</v>
       </c>
       <c r="S19" t="n">
-        <v>32</v>
+        <v>30.3</v>
       </c>
       <c r="T19" t="n">
-        <v>43.3</v>
+        <v>42.3</v>
       </c>
       <c r="U19" t="n">
-        <v>21.9</v>
+        <v>22.2</v>
       </c>
       <c r="V19" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="W19" t="n">
         <v>7.7</v>
@@ -3823,43 +3890,43 @@
         <v>7</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.3</v>
+        <v>17.7</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.4</v>
+        <v>22.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>91.59999999999999</v>
+        <v>91.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AE19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF19" t="n">
         <v>4</v>
       </c>
       <c r="AG19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI19" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AJ19" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AK19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL19" t="n">
         <v>29</v>
@@ -3871,49 +3938,49 @@
         <v>30</v>
       </c>
       <c r="AO19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT19" t="n">
         <v>16</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AU19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV19" t="n">
         <v>16</v>
       </c>
-      <c r="AS19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>18</v>
-      </c>
       <c r="AW19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX19" t="n">
         <v>7</v>
       </c>
       <c r="AY19" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BA19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB19" t="n">
         <v>23</v>
       </c>
       <c r="BC19" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-12-2012-13</t>
+          <t>2012-11-12</t>
         </is>
       </c>
     </row>
@@ -4020,37 +4087,37 @@
         <v>-0.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AF20" t="n">
         <v>4</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM20" t="n">
         <v>22</v>
       </c>
       <c r="AN20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO20" t="n">
         <v>24</v>
@@ -4059,13 +4126,13 @@
         <v>26</v>
       </c>
       <c r="AQ20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS20" t="n">
         <v>9</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>10</v>
       </c>
       <c r="AT20" t="n">
         <v>10</v>
@@ -4074,7 +4141,7 @@
         <v>13</v>
       </c>
       <c r="AV20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW20" t="n">
         <v>25</v>
@@ -4095,7 +4162,7 @@
         <v>28</v>
       </c>
       <c r="BC20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-12-2012-13</t>
+          <t>2012-11-12</t>
         </is>
       </c>
     </row>
@@ -4205,7 +4272,7 @@
         <v>30</v>
       </c>
       <c r="AE21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF21" t="n">
         <v>1</v>
@@ -4214,16 +4281,16 @@
         <v>1</v>
       </c>
       <c r="AH21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ21" t="n">
         <v>16</v>
       </c>
       <c r="AK21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4232,25 +4299,25 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT21" t="n">
         <v>19</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>14</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>20</v>
       </c>
       <c r="AU21" t="n">
         <v>15</v>
@@ -4259,16 +4326,16 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY21" t="n">
         <v>2</v>
       </c>
       <c r="AZ21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA21" t="n">
         <v>11</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-12-2012-13</t>
+          <t>2012-11-12</t>
         </is>
       </c>
     </row>
@@ -4306,88 +4373,88 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>0.75</v>
+        <v>0.714</v>
       </c>
       <c r="H22" t="n">
         <v>48</v>
       </c>
       <c r="I22" t="n">
-        <v>34.6</v>
+        <v>35.7</v>
       </c>
       <c r="J22" t="n">
-        <v>73.5</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.471</v>
+        <v>0.485</v>
       </c>
       <c r="L22" t="n">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="M22" t="n">
-        <v>16.4</v>
+        <v>17.3</v>
       </c>
       <c r="N22" t="n">
-        <v>0.389</v>
+        <v>0.413</v>
       </c>
       <c r="O22" t="n">
-        <v>23.5</v>
+        <v>21.6</v>
       </c>
       <c r="P22" t="n">
-        <v>27.8</v>
+        <v>25.7</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.847</v>
+        <v>0.839</v>
       </c>
       <c r="R22" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="S22" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="T22" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="U22" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="V22" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="W22" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="X22" t="n">
         <v>7.9</v>
       </c>
-      <c r="S22" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="T22" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="U22" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="V22" t="n">
-        <v>18</v>
-      </c>
-      <c r="W22" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="X22" t="n">
-        <v>8.4</v>
-      </c>
       <c r="Y22" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.9</v>
+        <v>21</v>
       </c>
       <c r="AB22" t="n">
-        <v>99.09999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.1</v>
+        <v>7.9</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF22" t="n">
         <v>4</v>
@@ -4396,10 +4463,10 @@
         <v>4</v>
       </c>
       <c r="AH22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI22" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AJ22" t="n">
         <v>30</v>
@@ -4408,19 +4475,19 @@
         <v>4</v>
       </c>
       <c r="AL22" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AM22" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AN22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ22" t="n">
         <v>1</v>
@@ -4432,10 +4499,10 @@
         <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU22" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AV22" t="n">
         <v>29</v>
@@ -4450,13 +4517,13 @@
         <v>1</v>
       </c>
       <c r="AZ22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA22" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB22" t="n">
         <v>6</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>9</v>
       </c>
       <c r="BC22" t="n">
         <v>4</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-12-2012-13</t>
+          <t>2012-11-12</t>
         </is>
       </c>
     </row>
@@ -4566,22 +4633,22 @@
         <v>-5.7</v>
       </c>
       <c r="AD23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE23" t="n">
         <v>22</v>
       </c>
-      <c r="AE23" t="n">
-        <v>23</v>
-      </c>
       <c r="AF23" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AG23" t="n">
         <v>24</v>
       </c>
       <c r="AH23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="n">
         <v>14</v>
@@ -4590,31 +4657,31 @@
         <v>21</v>
       </c>
       <c r="AL23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM23" t="n">
         <v>29</v>
       </c>
       <c r="AN23" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO23" t="n">
         <v>28</v>
       </c>
       <c r="AP23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ23" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AR23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT23" t="n">
         <v>17</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>18</v>
       </c>
       <c r="AU23" t="n">
         <v>12</v>
@@ -4626,13 +4693,13 @@
         <v>30</v>
       </c>
       <c r="AX23" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY23" t="n">
         <v>27</v>
       </c>
       <c r="AZ23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-12-2012-13</t>
+          <t>2012-11-12</t>
         </is>
       </c>
     </row>
@@ -4670,151 +4737,151 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>0.571</v>
+        <v>0.667</v>
       </c>
       <c r="H24" t="n">
         <v>48</v>
       </c>
       <c r="I24" t="n">
-        <v>34.1</v>
+        <v>33.7</v>
       </c>
       <c r="J24" t="n">
-        <v>82</v>
+        <v>81.5</v>
       </c>
       <c r="K24" t="n">
-        <v>0.416</v>
+        <v>0.413</v>
       </c>
       <c r="L24" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="M24" t="n">
-        <v>19.6</v>
+        <v>18.8</v>
       </c>
       <c r="N24" t="n">
-        <v>0.365</v>
+        <v>0.354</v>
       </c>
       <c r="O24" t="n">
-        <v>14.3</v>
+        <v>14.7</v>
       </c>
       <c r="P24" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="T24" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="U24" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="V24" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="W24" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="X24" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Z24" t="n">
         <v>18</v>
       </c>
-      <c r="Q24" t="n">
-        <v>0.794</v>
-      </c>
-      <c r="R24" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="S24" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="T24" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="U24" t="n">
-        <v>20</v>
-      </c>
-      <c r="V24" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="W24" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="X24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>17.4</v>
-      </c>
       <c r="AA24" t="n">
-        <v>17.1</v>
+        <v>16.8</v>
       </c>
       <c r="AB24" t="n">
-        <v>89.7</v>
+        <v>88.7</v>
       </c>
       <c r="AC24" t="n">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AE24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG24" t="n">
         <v>7</v>
       </c>
-      <c r="AF24" t="n">
+      <c r="AH24" t="n">
         <v>11</v>
       </c>
-      <c r="AG24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>13</v>
-      </c>
       <c r="AI24" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK24" t="n">
         <v>26</v>
       </c>
       <c r="AL24" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AM24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN24" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AO24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP24" t="n">
         <v>27</v>
       </c>
       <c r="AQ24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR24" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AS24" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AT24" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AU24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV24" t="n">
         <v>16</v>
       </c>
       <c r="AW24" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AX24" t="n">
         <v>19</v>
       </c>
       <c r="AY24" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA24" t="n">
         <v>28</v>
@@ -4823,7 +4890,7 @@
         <v>27</v>
       </c>
       <c r="BC24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-12-2012-13</t>
+          <t>2012-11-12</t>
         </is>
       </c>
     </row>
@@ -4852,160 +4919,160 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
         <v>4</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>0.429</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>37.8</v>
+        <v>37</v>
       </c>
       <c r="J25" t="n">
-        <v>88.3</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.428</v>
+        <v>0.423</v>
       </c>
       <c r="L25" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="M25" t="n">
-        <v>18</v>
+        <v>18.9</v>
       </c>
       <c r="N25" t="n">
-        <v>0.326</v>
+        <v>0.303</v>
       </c>
       <c r="O25" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P25" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.736</v>
+        <v>0.727</v>
       </c>
       <c r="R25" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="S25" t="n">
-        <v>29.5</v>
+        <v>30.1</v>
       </c>
       <c r="T25" t="n">
-        <v>43.5</v>
+        <v>44</v>
       </c>
       <c r="U25" t="n">
-        <v>20.8</v>
+        <v>19.6</v>
       </c>
       <c r="V25" t="n">
-        <v>13.1</v>
+        <v>14.1</v>
       </c>
       <c r="W25" t="n">
-        <v>8.5</v>
+        <v>8.9</v>
       </c>
       <c r="X25" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="AB25" t="n">
-        <v>98.09999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>-4.9</v>
+        <v>-7</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AF25" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AH25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI25" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AJ25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK25" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AL25" t="n">
         <v>23</v>
       </c>
       <c r="AM25" t="n">
+        <v>16</v>
+      </c>
+      <c r="AN25" t="n">
         <v>22</v>
       </c>
-      <c r="AN25" t="n">
-        <v>20</v>
-      </c>
       <c r="AO25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP25" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AQ25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR25" t="n">
         <v>4</v>
       </c>
       <c r="AS25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU25" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AV25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW25" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AX25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY25" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AZ25" t="n">
         <v>20</v>
       </c>
       <c r="BA25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC25" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-12-2012-13</t>
+          <t>2012-11-12</t>
         </is>
       </c>
     </row>
@@ -5034,145 +5101,145 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26" t="n">
         <v>2</v>
       </c>
       <c r="F26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="H26" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="I26" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="J26" t="n">
+        <v>87</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="L26" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="M26" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="O26" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="P26" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="R26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>28</v>
+      </c>
+      <c r="T26" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="U26" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="V26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="W26" t="n">
+        <v>9</v>
+      </c>
+      <c r="X26" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>5</v>
       </c>
-      <c r="G26" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="H26" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="I26" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.418</v>
-      </c>
-      <c r="L26" t="n">
-        <v>8</v>
-      </c>
-      <c r="M26" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="O26" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="P26" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.752</v>
-      </c>
-      <c r="R26" t="n">
-        <v>13</v>
-      </c>
-      <c r="S26" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="T26" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="U26" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="V26" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="W26" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="X26" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="Z26" t="n">
+      <c r="AK26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ26" t="n">
         <v>20</v>
       </c>
-      <c r="AA26" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>-5.9</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>7</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>18</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>19</v>
-      </c>
       <c r="AR26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS26" t="n">
         <v>27</v>
       </c>
       <c r="AT26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AU26" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AV26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW26" t="n">
         <v>9</v>
       </c>
-      <c r="AW26" t="n">
-        <v>5</v>
-      </c>
       <c r="AX26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY26" t="n">
         <v>8</v>
@@ -5181,13 +5248,13 @@
         <v>18</v>
       </c>
       <c r="BA26" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BB26" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="BC26" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-12-2012-13</t>
+          <t>2012-11-12</t>
         </is>
       </c>
     </row>
@@ -5294,22 +5361,22 @@
         <v>-6.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ27" t="n">
         <v>2</v>
@@ -5318,13 +5385,13 @@
         <v>30</v>
       </c>
       <c r="AL27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN27" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AO27" t="n">
         <v>23</v>
@@ -5348,10 +5415,10 @@
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX27" t="n">
         <v>15</v>
@@ -5360,7 +5427,7 @@
         <v>30</v>
       </c>
       <c r="AZ27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA27" t="n">
         <v>27</v>
@@ -5369,7 +5436,7 @@
         <v>24</v>
       </c>
       <c r="BC27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-12-2012-13</t>
+          <t>2012-11-12</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>4.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,31 +5555,31 @@
         <v>2</v>
       </c>
       <c r="AH28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI28" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AJ28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK28" t="n">
         <v>3</v>
       </c>
       <c r="AL28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN28" t="n">
         <v>12</v>
       </c>
       <c r="AO28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP28" t="n">
         <v>15</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>18</v>
       </c>
       <c r="AQ28" t="n">
         <v>14</v>
@@ -5521,37 +5588,37 @@
         <v>29</v>
       </c>
       <c r="AS28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AT28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX28" t="n">
         <v>15</v>
       </c>
       <c r="AY28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ28" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>19</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC28" t="n">
         <v>7</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>20</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>13</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>6</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-12-2012-13</t>
+          <t>2012-11-12</t>
         </is>
       </c>
     </row>
@@ -5580,157 +5647,157 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G29" t="n">
-        <v>0.143</v>
+        <v>0.167</v>
       </c>
       <c r="H29" t="n">
-        <v>50.1</v>
+        <v>48</v>
       </c>
       <c r="I29" t="n">
-        <v>36.7</v>
+        <v>34.3</v>
       </c>
       <c r="J29" t="n">
-        <v>87.90000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="K29" t="n">
-        <v>0.418</v>
+        <v>0.406</v>
       </c>
       <c r="L29" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M29" t="n">
-        <v>22.6</v>
+        <v>22.3</v>
       </c>
       <c r="N29" t="n">
-        <v>0.348</v>
+        <v>0.351</v>
       </c>
       <c r="O29" t="n">
-        <v>18.9</v>
+        <v>18.2</v>
       </c>
       <c r="P29" t="n">
-        <v>23.3</v>
+        <v>22.2</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="R29" t="n">
-        <v>12.3</v>
+        <v>11</v>
       </c>
       <c r="S29" t="n">
-        <v>27.7</v>
+        <v>27</v>
       </c>
       <c r="T29" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U29" t="n">
-        <v>21</v>
+        <v>19.3</v>
       </c>
       <c r="V29" t="n">
-        <v>13.3</v>
+        <v>12.5</v>
       </c>
       <c r="W29" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X29" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Y29" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="Z29" t="n">
-        <v>25.3</v>
+        <v>24.3</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.3</v>
+        <v>19.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>100.1</v>
+        <v>94.7</v>
       </c>
       <c r="AC29" t="n">
-        <v>-4.6</v>
+        <v>-4.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AE29" t="n">
         <v>28</v>
       </c>
       <c r="AF29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG29" t="n">
         <v>28</v>
       </c>
       <c r="AH29" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AI29" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AJ29" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AK29" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AL29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM29" t="n">
         <v>6</v>
       </c>
       <c r="AN29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AP29" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AQ29" t="n">
         <v>2</v>
       </c>
       <c r="AR29" t="n">
+        <v>18</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>28</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW29" t="n">
         <v>11</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>28</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>7</v>
       </c>
       <c r="AX29" t="n">
         <v>25</v>
       </c>
       <c r="AY29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ29" t="n">
         <v>28</v>
       </c>
-      <c r="AZ29" t="n">
-        <v>29</v>
-      </c>
       <c r="BA29" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="BB29" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="BC29" t="n">
         <v>22</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-12-2012-13</t>
+          <t>2012-11-12</t>
         </is>
       </c>
     </row>
@@ -5762,145 +5829,145 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30" t="n">
         <v>4</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>0.429</v>
       </c>
       <c r="H30" t="n">
-        <v>49.9</v>
+        <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>38</v>
+        <v>36.9</v>
       </c>
       <c r="J30" t="n">
-        <v>85.3</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.446</v>
+        <v>0.438</v>
       </c>
       <c r="L30" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="M30" t="n">
-        <v>18.8</v>
+        <v>17.7</v>
       </c>
       <c r="N30" t="n">
-        <v>0.34</v>
+        <v>0.298</v>
       </c>
       <c r="O30" t="n">
-        <v>18.4</v>
+        <v>16.1</v>
       </c>
       <c r="P30" t="n">
-        <v>24.5</v>
+        <v>21.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.75</v>
+        <v>0.739</v>
       </c>
       <c r="R30" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="S30" t="n">
-        <v>32.4</v>
+        <v>32</v>
       </c>
       <c r="T30" t="n">
-        <v>44.9</v>
+        <v>44.7</v>
       </c>
       <c r="U30" t="n">
-        <v>21.5</v>
+        <v>20.3</v>
       </c>
       <c r="V30" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="W30" t="n">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="X30" t="n">
-        <v>8.300000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="Y30" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="Z30" t="n">
-        <v>23.1</v>
+        <v>22.7</v>
       </c>
       <c r="AA30" t="n">
-        <v>21.3</v>
+        <v>19.9</v>
       </c>
       <c r="AB30" t="n">
-        <v>100.8</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
       </c>
       <c r="AE30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT30" t="n">
         <v>7</v>
       </c>
-      <c r="AF30" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL30" t="n">
+      <c r="AU30" t="n">
+        <v>22</v>
+      </c>
+      <c r="AV30" t="n">
         <v>18</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>18</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>7</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>20</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>19</v>
       </c>
       <c r="AW30" t="n">
         <v>16</v>
       </c>
       <c r="AX30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY30" t="n">
         <v>20</v>
@@ -5909,13 +5976,13 @@
         <v>25</v>
       </c>
       <c r="BA30" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="BB30" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BC30" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-12-2012-13</t>
+          <t>2012-11-12</t>
         </is>
       </c>
     </row>
@@ -6022,28 +6089,28 @@
         <v>-6.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI31" t="n">
         <v>22</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK31" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL31" t="n">
         <v>9</v>
@@ -6052,43 +6119,43 @@
         <v>3</v>
       </c>
       <c r="AN31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP31" t="n">
         <v>30</v>
       </c>
       <c r="AQ31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AS31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ31" t="n">
         <v>20</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>22</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>20</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>21</v>
       </c>
       <c r="BA31" t="n">
         <v>29</v>
@@ -6097,7 +6164,7 @@
         <v>29</v>
       </c>
       <c r="BC31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-12-2012-13</t>
+          <t>2012-11-12</t>
         </is>
       </c>
     </row>
